--- a/src/files/TraitImport/test_traits_missingCol.xlsx
+++ b/src/files/TraitImport/test_traits_missingCol.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\Documents\Testing\Cucumber\BI_Cucumber\TraitImportFiles\v0.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243/IdeaProjects/taf/src/files/TraitImport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F6CD9-A7FF-304C-9A77-71DCB7955CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Method description</t>
   </si>
@@ -126,13 +127,16 @@
   </si>
   <si>
     <t>CROWN BUD NUMBER</t>
+  </si>
+  <si>
+    <t>Term Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +161,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -233,7 +245,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -243,6 +254,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,153 +537,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.62890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.9453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1015625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.3125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.20703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="94.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="94.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="O1" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -680,21 +694,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D74C1D9EC8A1042A5EF45985DF3E9E4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2000d971e1751a7db8d92151125d08a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa5be1c8-7296-4b7a-853c-c6802fcefdea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4a1f299a0d30015388c519f6ad441cc" ns3:_="">
     <xsd:import namespace="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
@@ -872,31 +871,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340A8394-9E0A-435F-BF61-25A36768AA02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -912,4 +902,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/files/TraitImport/test_traits_missingCol.xlsx
+++ b/src/files/TraitImport/test_traits_missingCol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243/IdeaProjects/taf/src/files/TraitImport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlm483/Source/taf/src/files/TraitImport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8F6CD9-A7FF-304C-9A77-71DCB7955CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3564B6-B9B6-4148-BCD4-69E5F9B70185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="37340" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Method description</t>
   </si>
@@ -55,15 +55,6 @@
   </si>
   <si>
     <t>Number of crown buds</t>
-  </si>
-  <si>
-    <t>Predation 1-5 scale</t>
-  </si>
-  <si>
-    <t>CrBr 1-5 scale</t>
-  </si>
-  <si>
-    <t>CrBuCt 1-5 scale</t>
   </si>
   <si>
     <t>Estimation</t>
@@ -540,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -564,19 +555,19 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -588,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>3</v>
@@ -606,85 +597,79 @@
         <v>6</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="J2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="7"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +679,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D74C1D9EC8A1042A5EF45985DF3E9E4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2000d971e1751a7db8d92151125d08a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa5be1c8-7296-4b7a-853c-c6802fcefdea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4a1f299a0d30015388c519f6ad441cc" ns3:_="">
     <xsd:import namespace="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
@@ -871,22 +871,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340A8394-9E0A-435F-BF61-25A36768AA02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -902,28 +911,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>